--- a/biology/Zoologie/George_Morrison_Reid_Henry/George_Morrison_Reid_Henry.xlsx
+++ b/biology/Zoologie/George_Morrison_Reid_Henry/George_Morrison_Reid_Henry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Morrison Reid Henry est un entomologiste et un ornithologue britannique, né le 17 février 1891 à Goatfell Estate, Kandapola, Sri Lanka et mort en juin 1983.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père, Charles Reid Henry, possédait au Sri Lanka une plantation de théiers. Il est le seul garçon d'une fratrie de onze enfants et a été élevé par ses sœurs. Il montre très tôt un grand talent d'illustrateur et, alors âgé de seize ans, obtient un premier emploi de dessinateur et de laborantin assistant dans la compagnie de pêcheurs de perles de Ceylan en 1907. En 1910, il devient dessinateur au muséum de Colombo où il est formé par le directeur de l'établissement, Joseph Pearson, zoologiste, spécialiste de biologie marine. En juillet 1913, il est promu à un poste qui venait d'être créé, celui d'assistant en entomologie systématique, fonction qu'il occupera jusqu'à son départ à la retraite en 1946.
 George Henry se marie avec Olive Hobday en septembre 1917. Son fils aîné, Bruce Charles Reid Henry, naît le 22 juillet 1918 et son fils cadet, David Morrison Reid Henry, naît le 14 septembre 1919. Ses deux fils héritent du talent de dessinateur de leur père. David devint un artiste animalier renommé et mourut au Zimbabwe en 1977. Olive mourut en 1969.
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Henry, G. M. 1915. Cannibalism in Pulchriphyllium crurifolium, Serv.Spol. Zeyl. 10 (37) : 176.
 Henry, G. M. 1922. Stridulation in the leaf-insect. Spol. Zeyl. 12 (45) : 217-219, 1 pl.
